--- a/test2.xlsx
+++ b/test2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marut\OneDrive\Desktop\..UofT\Second Year\RentAGI\AGI Database Work Summer 2025\Workshop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D408240-1651-42CC-9A9C-B2672233319E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9681DD60-AEF7-4DBF-B8CA-A72C36674AA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2688" yWindow="1872" windowWidth="17832" windowHeight="11088" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1116" yWindow="1728" windowWidth="20844" windowHeight="11088" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sample" sheetId="1" r:id="rId1"/>
@@ -406,7 +406,7 @@
   <dimension ref="A1:V1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:X8"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
